--- a/biology/Mycologie/Bambusiomyces/Bambusiomyces.xlsx
+++ b/biology/Mycologie/Bambusiomyces/Bambusiomyces.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bambusiomyces est un genre de champignons de la famille des Ustilaginaceae.
-Ce genre a été circonscrit en 2011 pour contenir le « charbon » originaire du Japon, anciennement connu sous le nom d'Ustilago shiranai, espèce décrite à l'origine en 1900 par le mycologue allemand, Paul Christoph Hennings[1].
+Ce genre a été circonscrit en 2011 pour contenir le « charbon » originaire du Japon, anciennement connu sous le nom d'Ustilago shiranai, espèce décrite à l'origine en 1900 par le mycologue allemand, Paul Christoph Hennings.
 Ce champignon a été découvert à l'origine sur un bambou sauvage japonais, Bambusa veitchii, mais on l'a isolé depuis lors sur plusieurs espèces de plantes appartenant à la tribu des Bambuseae, dans la famille des Poaceae (graminées).
-Outre le Japon, l'espèce est présente également en Chine et dans divers lieux en Asie du Sud, et elle a été introduite aux États-Unis[2].
+Outre le Japon, l'espèce est présente également en Chine et dans divers lieux en Asie du Sud, et elle a été introduite aux États-Unis.
 </t>
         </is>
       </c>
@@ -514,9 +526,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Index Fungorum                                      (18 octobre 2016)[3] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Index Fungorum                                      (18 octobre 2016) :
 Bambusiomyces shiraianus (Henn.) Vánky 2011</t>
         </is>
       </c>
